--- a/data/VGPs_NAM/23.xlsx
+++ b/data/VGPs_NAM/23.xlsx
@@ -992,7 +992,7 @@
       <c r="H7" s="19">
         <v>3.6</v>
       </c>
-      <c r="I7" s="2"/>
+      <c r="I7" s="19"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -1045,7 +1045,7 @@
       <c r="H8" s="19">
         <v>13.0</v>
       </c>
-      <c r="I8" s="2"/>
+      <c r="I8" s="19"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -1065,7 +1065,7 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="V8" s="19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
@@ -1098,7 +1098,7 @@
       <c r="H9" s="19">
         <v>3.5</v>
       </c>
-      <c r="I9" s="2"/>
+      <c r="I9" s="19"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -1149,7 +1149,7 @@
         <v>64.0</v>
       </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="I10" s="19"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -1202,7 +1202,7 @@
       <c r="H11" s="19">
         <v>4.3</v>
       </c>
-      <c r="I11" s="2"/>
+      <c r="I11" s="19"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -1255,7 +1255,7 @@
       <c r="H12" s="19">
         <v>11.0</v>
       </c>
-      <c r="I12" s="2"/>
+      <c r="I12" s="19"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -1308,7 +1308,7 @@
       <c r="H13" s="19">
         <v>4.4</v>
       </c>
-      <c r="I13" s="2"/>
+      <c r="I13" s="19"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1361,7 +1361,7 @@
       <c r="H14" s="19">
         <v>30.6</v>
       </c>
-      <c r="I14" s="2"/>
+      <c r="I14" s="19"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -1414,7 +1414,7 @@
       <c r="H15" s="19">
         <v>3.1</v>
       </c>
-      <c r="I15" s="2"/>
+      <c r="I15" s="19"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -1465,7 +1465,7 @@
         <v>-24.8</v>
       </c>
       <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+      <c r="I16" s="19"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -1518,7 +1518,7 @@
       <c r="H17" s="19">
         <v>6.4</v>
       </c>
-      <c r="I17" s="2"/>
+      <c r="I17" s="19"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -1565,7 +1565,7 @@
       <c r="H18" s="19">
         <v>5.2</v>
       </c>
-      <c r="I18" s="2"/>
+      <c r="I18" s="19"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -1618,7 +1618,7 @@
       <c r="H19" s="19">
         <v>3.3</v>
       </c>
-      <c r="I19" s="2"/>
+      <c r="I19" s="19"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -1669,7 +1669,7 @@
         <v>-55.4</v>
       </c>
       <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
+      <c r="I20" s="19"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -1722,7 +1722,7 @@
       <c r="H21" s="19">
         <v>3.6</v>
       </c>
-      <c r="I21" s="2"/>
+      <c r="I21" s="19"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -1775,7 +1775,7 @@
       <c r="H22" s="19">
         <v>7.5</v>
       </c>
-      <c r="I22" s="2"/>
+      <c r="I22" s="19"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -1826,7 +1826,7 @@
         <v>-55.9</v>
       </c>
       <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
+      <c r="I23" s="19"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -1877,7 +1877,7 @@
         <v>-52.7</v>
       </c>
       <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
+      <c r="I24" s="19"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -1922,7 +1922,7 @@
         <v>-58.0</v>
       </c>
       <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
+      <c r="I25" s="19"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
@@ -1942,7 +1942,7 @@
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
       <c r="V25" s="19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
@@ -1973,7 +1973,7 @@
         <v>-35.2</v>
       </c>
       <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
+      <c r="I26" s="19"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -2020,7 +2020,7 @@
       <c r="H27" s="19">
         <v>16.3</v>
       </c>
-      <c r="I27" s="2"/>
+      <c r="I27" s="19"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
@@ -2073,7 +2073,7 @@
       <c r="H28" s="19">
         <v>11.0</v>
       </c>
-      <c r="I28" s="2"/>
+      <c r="I28" s="19"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -2120,7 +2120,7 @@
       <c r="H29" s="19">
         <v>4.4</v>
       </c>
-      <c r="I29" s="2"/>
+      <c r="I29" s="19"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
@@ -2173,7 +2173,7 @@
       <c r="H30" s="19">
         <v>4.8</v>
       </c>
-      <c r="I30" s="2"/>
+      <c r="I30" s="19"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -2226,7 +2226,7 @@
       <c r="H31" s="19">
         <v>4.7</v>
       </c>
-      <c r="I31" s="2"/>
+      <c r="I31" s="19"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
@@ -2279,7 +2279,7 @@
       <c r="H32" s="19">
         <v>5.7</v>
       </c>
-      <c r="I32" s="2"/>
+      <c r="I32" s="19"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
@@ -2330,7 +2330,7 @@
         <v>-36.9</v>
       </c>
       <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
+      <c r="I33" s="19"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
@@ -2383,7 +2383,7 @@
       <c r="H34" s="19">
         <v>28.0</v>
       </c>
-      <c r="I34" s="2"/>
+      <c r="I34" s="19"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
@@ -2430,7 +2430,7 @@
       <c r="H35" s="19">
         <v>5.4</v>
       </c>
-      <c r="I35" s="2"/>
+      <c r="I35" s="19"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
@@ -2481,7 +2481,7 @@
         <v>58.7</v>
       </c>
       <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
+      <c r="I36" s="19"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
@@ -2534,7 +2534,7 @@
       <c r="H37" s="19">
         <v>10.8</v>
       </c>
-      <c r="I37" s="2"/>
+      <c r="I37" s="19"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
@@ -2587,7 +2587,7 @@
       <c r="H38" s="19">
         <v>3.8</v>
       </c>
-      <c r="I38" s="2"/>
+      <c r="I38" s="19"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
@@ -2640,7 +2640,7 @@
       <c r="H39" s="19">
         <v>18.3</v>
       </c>
-      <c r="I39" s="2"/>
+      <c r="I39" s="19"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
@@ -2687,7 +2687,7 @@
       <c r="H40" s="19">
         <v>3.6</v>
       </c>
-      <c r="I40" s="2"/>
+      <c r="I40" s="19"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
@@ -2740,7 +2740,7 @@
       <c r="H41" s="19">
         <v>8.1</v>
       </c>
-      <c r="I41" s="2"/>
+      <c r="I41" s="19"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
@@ -2793,7 +2793,7 @@
       <c r="H42" s="19">
         <v>4.7</v>
       </c>
-      <c r="I42" s="2"/>
+      <c r="I42" s="19"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
@@ -2846,7 +2846,7 @@
       <c r="H43" s="19">
         <v>6.4</v>
       </c>
-      <c r="I43" s="2"/>
+      <c r="I43" s="19"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
@@ -2899,7 +2899,7 @@
       <c r="H44" s="19">
         <v>1.6</v>
       </c>
-      <c r="I44" s="2"/>
+      <c r="I44" s="19"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
@@ -2952,7 +2952,7 @@
       <c r="H45" s="19">
         <v>17.3</v>
       </c>
-      <c r="I45" s="2"/>
+      <c r="I45" s="19"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
@@ -2999,7 +2999,7 @@
       <c r="H46" s="19">
         <v>48.5</v>
       </c>
-      <c r="I46" s="2"/>
+      <c r="I46" s="19"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
@@ -3019,7 +3019,7 @@
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
       <c r="V46" s="19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="W46" s="2"/>
       <c r="X46" s="2"/>
@@ -3052,7 +3052,7 @@
       <c r="H47" s="19">
         <v>44.5</v>
       </c>
-      <c r="I47" s="2"/>
+      <c r="I47" s="19"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
@@ -3072,7 +3072,7 @@
       <c r="T47" s="2"/>
       <c r="U47" s="2"/>
       <c r="V47" s="19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="W47" s="2"/>
       <c r="X47" s="2"/>
@@ -3105,7 +3105,7 @@
       <c r="H48" s="19">
         <v>35.6</v>
       </c>
-      <c r="I48" s="2"/>
+      <c r="I48" s="19"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
@@ -3152,7 +3152,7 @@
       <c r="H49" s="19">
         <v>67.8</v>
       </c>
-      <c r="I49" s="2"/>
+      <c r="I49" s="19"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
